--- a/Dataset.xlsx
+++ b/Dataset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="demographic" sheetId="1" state="visible" r:id="rId2"/>
@@ -336,8 +336,8 @@
   </sheetPr>
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1526,8 +1526,8 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1549,29 +1549,26 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1478078396</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>1478154566</v>
+        <v>1478078399</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>2</v>
@@ -1585,7 +1582,7 @@
         <v>1478154648</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>2</v>
@@ -1602,7 +1599,7 @@
         <v>482</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1832,7 +1829,7 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>

--- a/Dataset.xlsx
+++ b/Dataset.xlsx
@@ -1527,7 +1527,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1553,8 +1553,8 @@
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>1478078396</v>
+      <c r="C2" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>2</v>
@@ -1567,14 +1567,11 @@
       <c r="B3" s="0" t="n">
         <v>1478078399</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>77</v>
-      </c>
       <c r="D3" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>1</v>
       </c>
@@ -1583,9 +1580,6 @@
       </c>
       <c r="C4" s="0" t="n">
         <v>55</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
